--- a/grupos/4BEM - Estadisticos 20242.xlsx
+++ b/grupos/4BEM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
   <si>
     <t>Materia</t>
   </si>
@@ -221,15 +221,15 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
     <t>MEJIA</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>MENDEZ</t>
   </si>
   <si>
@@ -275,13 +275,13 @@
     <t>LEONEL</t>
   </si>
   <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
     <t>JOSE FRANCISCO</t>
   </si>
   <si>
     <t>ALEX URIEL</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
   </si>
   <si>
     <t>ALAN URIEL</t>
@@ -842,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -890,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="AA4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB4">
         <v>7</v>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -991,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB5">
         <v>7</v>
@@ -1044,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1145,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1193,7 +1193,7 @@
         <v>7</v>
       </c>
       <c r="AA7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB7">
         <v>6</v>
@@ -1246,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="AA8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB8">
         <v>7</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="AA9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -1448,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="AA10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB10">
         <v>8</v>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -1597,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="AA11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB11">
         <v>10</v>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -1751,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -1799,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="AA13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB13">
         <v>10</v>
@@ -1852,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="AA14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB14">
         <v>8</v>
@@ -1953,7 +1953,7 @@
         <v>7</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -2054,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -2102,7 +2102,7 @@
         <v>9</v>
       </c>
       <c r="AA16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB16">
         <v>10</v>
@@ -2155,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -2256,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -2304,7 +2304,7 @@
         <v>7</v>
       </c>
       <c r="AA18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB18">
         <v>8</v>
@@ -2357,7 +2357,7 @@
         <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -2458,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>10</v>
@@ -2559,7 +2559,7 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="AA21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB21">
         <v>6</v>
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -2761,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2862,7 +2862,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>10</v>
@@ -2910,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="AA24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB24">
         <v>10</v>
@@ -2963,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -3011,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="AA25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB25">
         <v>10</v>
@@ -3064,7 +3064,7 @@
         <v>7</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -3112,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="AA26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB26">
         <v>7</v>
@@ -3165,7 +3165,7 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <v>7</v>
@@ -5317,19 +5317,19 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
-        <v>83.3</v>
+        <v>79.2</v>
       </c>
       <c r="G3" s="2">
-        <v>16.7</v>
+        <v>20.8</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5594,7 +5594,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5836,13 +5836,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920021</v>
+        <v>23330051920032</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
@@ -5859,13 +5859,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>22330051920021</v>
+        <v>23330051920032</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
@@ -5882,13 +5882,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920212</v>
+        <v>22330051920021</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
@@ -5905,13 +5905,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>23330051920212</v>
+        <v>22330051920021</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>86</v>
@@ -5928,22 +5928,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>23330051920032</v>
+        <v>23330051920212</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -5951,16 +5951,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>23330051920040</v>
+        <v>23330051920212</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -5974,16 +5974,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>23330051920043</v>
+        <v>23330051920040</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -5997,16 +5997,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>23330051920046</v>
+        <v>23330051920043</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -6015,6 +6015,29 @@
         <v>51</v>
       </c>
       <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>23330051920046</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
     </row>
